--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H2">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I2">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J2">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N2">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O2">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P2">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q2">
-        <v>2.40329439774</v>
+        <v>0.5718324200399999</v>
       </c>
       <c r="R2">
-        <v>21.62964957966</v>
+        <v>5.14649178036</v>
       </c>
       <c r="S2">
-        <v>0.005281948931237524</v>
+        <v>0.001260431958892324</v>
       </c>
       <c r="T2">
-        <v>0.006400989611713153</v>
+        <v>0.001603044000279591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H3">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I3">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J3">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P3">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q3">
-        <v>10.83045988206</v>
+        <v>3.785757128244</v>
       </c>
       <c r="R3">
-        <v>97.47413893854001</v>
+        <v>34.071814154196</v>
       </c>
       <c r="S3">
-        <v>0.02380313292148177</v>
+        <v>0.008344558835452843</v>
       </c>
       <c r="T3">
-        <v>0.02884609611720241</v>
+        <v>0.01061278626091666</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H4">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I4">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J4">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N4">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O4">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P4">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q4">
-        <v>1.33884626544</v>
+        <v>0.279100263708</v>
       </c>
       <c r="R4">
-        <v>12.04961638896</v>
+        <v>2.511902373372</v>
       </c>
       <c r="S4">
-        <v>0.002942509917837046</v>
+        <v>0.0006151922832361113</v>
       </c>
       <c r="T4">
-        <v>0.003565913957449973</v>
+        <v>0.0007824145458249192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H5">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I5">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J5">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N5">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O5">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P5">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q5">
-        <v>9.177301365660002</v>
+        <v>4.2582337875</v>
       </c>
       <c r="R5">
-        <v>55.06380819396001</v>
+        <v>25.549402725</v>
       </c>
       <c r="S5">
-        <v>0.02016982904199183</v>
+        <v>0.009385991010836122</v>
       </c>
       <c r="T5">
-        <v>0.01629535711768309</v>
+        <v>0.007958201139140522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H6">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I6">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J6">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N6">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O6">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P6">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q6">
-        <v>2.42998798932</v>
+        <v>0.388619538048</v>
       </c>
       <c r="R6">
-        <v>21.86989190388</v>
+        <v>3.497575842432</v>
       </c>
       <c r="S6">
-        <v>0.005340615979123735</v>
+        <v>0.0008565944644611212</v>
       </c>
       <c r="T6">
-        <v>0.006472085937890909</v>
+        <v>0.001089434941124351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
         <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J7">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N7">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O7">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P7">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q7">
-        <v>23.95923522136222</v>
+        <v>16.30905887282222</v>
       </c>
       <c r="R7">
-        <v>215.63311699226</v>
+        <v>146.7815298554</v>
       </c>
       <c r="S7">
-        <v>0.05265749256093994</v>
+        <v>0.0359483972967528</v>
       </c>
       <c r="T7">
-        <v>0.06381357851986431</v>
+        <v>0.04571993132962886</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
         <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J8">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P8">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q8">
         <v>107.9724298919933</v>
       </c>
       <c r="R8">
-        <v>971.7518690279402</v>
+        <v>971.75186902794</v>
       </c>
       <c r="S8">
-        <v>0.2373012899324501</v>
+        <v>0.2379926295637619</v>
       </c>
       <c r="T8">
-        <v>0.2875762548025738</v>
+        <v>0.3026840554473307</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
         <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J9">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N9">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O9">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P9">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q9">
-        <v>13.34740039717334</v>
+        <v>7.960133900619999</v>
       </c>
       <c r="R9">
-        <v>120.12660357456</v>
+        <v>71.64120510557999</v>
       </c>
       <c r="S9">
-        <v>0.02933485274585827</v>
+        <v>0.01754571236919696</v>
       </c>
       <c r="T9">
-        <v>0.03554977341353811</v>
+        <v>0.02231500776034781</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
         <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J10">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N10">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O10">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P10">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q10">
-        <v>91.49154690492669</v>
+        <v>121.4477932708333</v>
       </c>
       <c r="R10">
-        <v>548.9492814295602</v>
+        <v>728.6867596249999</v>
       </c>
       <c r="S10">
-        <v>0.2010796841394819</v>
+        <v>0.2676950005122106</v>
       </c>
       <c r="T10">
-        <v>0.1624537944938473</v>
+        <v>0.2269734389857167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
         <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J11">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N11">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O11">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P11">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q11">
-        <v>24.22535244785334</v>
+        <v>11.08369987960889</v>
       </c>
       <c r="R11">
-        <v>218.02817203068</v>
+        <v>99.75329891647999</v>
       </c>
       <c r="S11">
-        <v>0.05324236372835515</v>
+        <v>0.02443067070253348</v>
       </c>
       <c r="T11">
-        <v>0.06452236126569411</v>
+        <v>0.03107144325896002</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H12">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I12">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J12">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N12">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O12">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P12">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q12">
-        <v>2.697555591356777</v>
+        <v>2.347300642878889</v>
       </c>
       <c r="R12">
-        <v>24.278000322211</v>
+        <v>21.12570578591</v>
       </c>
       <c r="S12">
-        <v>0.005928674774975361</v>
+        <v>0.005173915720284086</v>
       </c>
       <c r="T12">
-        <v>0.007184731647329998</v>
+        <v>0.006580295346241855</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H13">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I13">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J13">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P13">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q13">
-        <v>12.15654962591766</v>
+        <v>15.54006004117233</v>
       </c>
       <c r="R13">
-        <v>109.408946633259</v>
+        <v>139.860540370551</v>
       </c>
       <c r="S13">
-        <v>0.02671760661720575</v>
+        <v>0.03425337149934422</v>
       </c>
       <c r="T13">
-        <v>0.0323780340614736</v>
+        <v>0.04356416170185552</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H14">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I14">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J14">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N14">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O14">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P14">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q14">
-        <v>1.502775620290667</v>
+        <v>1.145671713373</v>
       </c>
       <c r="R14">
-        <v>13.524980582616</v>
+        <v>10.311045420357</v>
       </c>
       <c r="S14">
-        <v>0.003302793069774726</v>
+        <v>0.002525287464172185</v>
       </c>
       <c r="T14">
-        <v>0.004002527174058267</v>
+        <v>0.003211713960331522</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H15">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I15">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J15">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N15">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O15">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P15">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q15">
-        <v>10.30097712364433</v>
+        <v>17.47951769895833</v>
       </c>
       <c r="R15">
-        <v>61.805862741866</v>
+        <v>104.87710619375</v>
       </c>
       <c r="S15">
-        <v>0.02263943824780706</v>
+        <v>0.03852832046887087</v>
       </c>
       <c r="T15">
-        <v>0.01829057303478849</v>
+        <v>0.0326674214252444</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H16">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I16">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J16">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N16">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O16">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P16">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q16">
-        <v>2.727517566588666</v>
+        <v>1.595234651843555</v>
       </c>
       <c r="R16">
-        <v>24.547658099298</v>
+        <v>14.357111866592</v>
       </c>
       <c r="S16">
-        <v>0.005994525060817438</v>
+        <v>0.003516213258729609</v>
       </c>
       <c r="T16">
-        <v>0.007264533061749338</v>
+        <v>0.004471994325710029</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H17">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I17">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J17">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N17">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O17">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P17">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q17">
-        <v>8.225651520610667</v>
+        <v>6.020186044013332</v>
       </c>
       <c r="R17">
-        <v>49.353909123664</v>
+        <v>36.12111626407999</v>
       </c>
       <c r="S17">
-        <v>0.01807829756474229</v>
+        <v>0.01326968290433965</v>
       </c>
       <c r="T17">
-        <v>0.01460559305108142</v>
+        <v>0.01125110875169504</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H18">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I18">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J18">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P18">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q18">
-        <v>37.068945394936</v>
+        <v>39.856016257148</v>
       </c>
       <c r="R18">
-        <v>222.413672369616</v>
+        <v>239.136097542888</v>
       </c>
       <c r="S18">
-        <v>0.08146995087035799</v>
+        <v>0.08785055705853008</v>
       </c>
       <c r="T18">
-        <v>0.06582018821422181</v>
+        <v>0.0744867965940065</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H19">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I19">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J19">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N19">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O19">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P19">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q19">
-        <v>4.582411056064001</v>
+        <v>2.938335522036</v>
       </c>
       <c r="R19">
-        <v>27.494466336384</v>
+        <v>17.630013132216</v>
       </c>
       <c r="S19">
-        <v>0.01007120109913674</v>
+        <v>0.006476673703921278</v>
       </c>
       <c r="T19">
-        <v>0.008136599381817515</v>
+        <v>0.005491446986139427</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H20">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I20">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J20">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N20">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O20">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P20">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q20">
-        <v>31.41075142709601</v>
+        <v>44.8301962625</v>
       </c>
       <c r="R20">
-        <v>125.643005708384</v>
+        <v>179.32078505</v>
       </c>
       <c r="S20">
-        <v>0.06903439923370813</v>
+        <v>0.09881463539391075</v>
       </c>
       <c r="T20">
-        <v>0.03718227479191665</v>
+        <v>0.05585535173626971</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H21">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I21">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J21">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N21">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O21">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P21">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q21">
-        <v>8.317014518992</v>
+        <v>4.091341864149333</v>
       </c>
       <c r="R21">
-        <v>49.902087113952</v>
+        <v>24.548051184896</v>
       </c>
       <c r="S21">
-        <v>0.01827909472555153</v>
+        <v>0.009018128143149336</v>
       </c>
       <c r="T21">
-        <v>0.01476781859284438</v>
+        <v>0.007646297293367322</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H22">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I22">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J22">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N22">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O22">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P22">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q22">
-        <v>4.483057126837111</v>
+        <v>2.696639262771111</v>
       </c>
       <c r="R22">
-        <v>40.347514141534</v>
+        <v>24.26975336494</v>
       </c>
       <c r="S22">
-        <v>0.009852841508739616</v>
+        <v>0.005943927257854296</v>
       </c>
       <c r="T22">
-        <v>0.01194027753095334</v>
+        <v>0.007559612291309446</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H23">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I23">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J23">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>25.946193</v>
       </c>
       <c r="O23">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P23">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q23">
-        <v>20.20292245796067</v>
+        <v>17.85282008079267</v>
       </c>
       <c r="R23">
-        <v>181.826302121646</v>
+        <v>160.675380727134</v>
       </c>
       <c r="S23">
-        <v>0.04440188633779041</v>
+        <v>0.03935115288603551</v>
       </c>
       <c r="T23">
-        <v>0.05380892865279459</v>
+        <v>0.05004762779379279</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H24">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I24">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J24">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N24">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O24">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P24">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q24">
-        <v>2.497456948122667</v>
+        <v>1.316177087882</v>
       </c>
       <c r="R24">
-        <v>22.477112533104</v>
+        <v>11.845593790938</v>
       </c>
       <c r="S24">
-        <v>0.005488898934043688</v>
+        <v>0.002901115094195357</v>
       </c>
       <c r="T24">
-        <v>0.006651784315590741</v>
+        <v>0.003689699482039014</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H25">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I25">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J25">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N25">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O25">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P25">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q25">
-        <v>17.11915374626734</v>
+        <v>20.08091884791667</v>
       </c>
       <c r="R25">
-        <v>102.714922477604</v>
+        <v>120.4855130875</v>
       </c>
       <c r="S25">
-        <v>0.03762439421438287</v>
+        <v>0.04426232405302746</v>
       </c>
       <c r="T25">
-        <v>0.03039703206127486</v>
+        <v>0.03752917270996099</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H26">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I26">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J26">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N26">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O26">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P26">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q26">
-        <v>4.532850816734666</v>
+        <v>1.832646537436444</v>
       </c>
       <c r="R26">
-        <v>40.795657350612</v>
+        <v>16.493818836928</v>
       </c>
       <c r="S26">
-        <v>0.009962277842209245</v>
+        <v>0.004039516096300856</v>
       </c>
       <c r="T26">
-        <v>0.01207289919064799</v>
+        <v>0.005137541932766173</v>
       </c>
     </row>
   </sheetData>
